--- a/story/Story Summarization 剧情简述/Activity Story 活动剧情/act6d5 Ancient Forge 洪炉示岁 洪炉示歳/level_act6d5_st01.xlsx
+++ b/story/Story Summarization 剧情简述/Activity Story 活动剧情/act6d5 Ancient Forge 洪炉示岁 洪炉示歳/level_act6d5_st01.xlsx
@@ -35,7 +35,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">A new celebration approaches and Lungmen is vigorously making preparations, waiting for a faceless enemy only known by the name, "Nian."
+    <t xml:space="preserve">A new celebration approaches and Lungmen is vigorously making preparations, waiting for a faceless enemy only known by the name, 'Nian.'
 </t>
   </si>
   <si>
